--- a/data/August2025_PreliminaryStatistics_on_CustomsImports_and_Exports/Table9_ ImportValue_AnnualGrowthRate(to_Taiwan).xlsx
+++ b/data/August2025_PreliminaryStatistics_on_CustomsImports_and_Exports/Table9_ ImportValue_AnnualGrowthRate(to_Taiwan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\貿易統計科\記者會資料檔\news上網檔\114年8月\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AboutCoding\CourseCode\Artificial_Intelligence_Practice_CourseCode\ROC_PreliminaryStatistics_on_CustomsImports_and_Exports_for_2025\data\August2025_PreliminaryStatistics_on_CustomsImports_and_Exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4884D0-877E-4F29-B24F-FE9C12DF5D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229211A-D558-4CB7-844E-E23FA5CBD6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表9" sheetId="1" r:id="rId1"/>
@@ -549,20 +549,6 @@
   </si>
   <si>
     <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>5</t>
     </r>
     <r>
@@ -647,6 +633,21 @@
         <charset val="136"/>
       </rPr>
       <t>說明：東協包括新加坡、馬來西亞、菲律賓、泰國、印尼、越南、汶萊、寮國、緬甸及柬埔寨。</t>
+    </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
     </r>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -942,7 +943,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1058,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1487,7 +1500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,16 +1534,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
@@ -1551,10 +1564,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1573,7 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="198" fontId="29" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1572,10 +1582,7 @@
     <xf numFmtId="198" fontId="13" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="35" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="35" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="35" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="198" fontId="35" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1603,10 +1610,10 @@
     <xf numFmtId="199" fontId="13" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="199" fontId="36" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,23 +1623,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="199" fontId="30" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="199" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="199" fontId="36" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="29" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="36" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="13" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="13" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="199" fontId="38" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,6 +1688,75 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="24" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="38" fillId="24" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="199" fontId="38" fillId="24" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="35" fillId="24" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="35" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="35" fillId="24" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="36" fillId="24" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="24" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="24" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="36" fillId="24" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="24" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="24" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="36" fillId="24" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="24" borderId="13" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="25" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="25" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="36" fillId="25" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="36" fillId="25" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -1781,12 +1847,9 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表1"/>
-      <sheetName val="表2"/>
-      <sheetName val="表3"/>
       <sheetName val="表6"/>
       <sheetName val="表7"/>
       <sheetName val="表8"/>
@@ -1798,13 +1861,16 @@
       <sheetName val="匯檔"/>
       <sheetName val="匯率"/>
       <sheetName val="轉檔"/>
-      <sheetName val="國家及洲別代碼"/>
       <sheetName val="進-月"/>
       <sheetName val="參1"/>
       <sheetName val="參2"/>
       <sheetName val="參3"/>
       <sheetName val="參4"/>
       <sheetName val="參5"/>
+      <sheetName val="表1"/>
+      <sheetName val="表2"/>
+      <sheetName val="表3"/>
+      <sheetName val="國家及洲別代碼"/>
       <sheetName val="特國出"/>
       <sheetName val="特國進"/>
       <sheetName val="歐盟出口"/>
@@ -1850,9 +1916,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1890,9 +1956,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1925,26 +1991,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1977,26 +2026,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2173,78 +2205,78 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" sqref="A1:R1"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="43" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="43" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" style="43" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="43" customWidth="1"/>
     <col min="13" max="13" width="8.109375" style="21" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="43" customWidth="1"/>
     <col min="15" max="15" width="8.109375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" style="43" customWidth="1"/>
     <col min="17" max="17" width="8.109375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" style="45" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="43" customWidth="1"/>
     <col min="19" max="20" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="10.44140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="39"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="49"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="39"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="39"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="49"/>
+      <c r="R2" s="37"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -2252,98 +2284,98 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" s="6" customFormat="1" ht="15.9" customHeight="1" thickBot="1">
-      <c r="C3" s="40"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="52"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="40"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="40"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="65" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="65" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="64" t="s">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="59"/>
     </row>
     <row r="5" spans="1:28" s="9" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="71"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="53" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="55" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="49" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2354,52 +2386,52 @@
       <c r="B6" s="11">
         <v>236380.48300000001</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>-15.907445585730679</v>
       </c>
       <c r="D6" s="11">
         <v>46732.159</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>19.769888954833888</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="39">
         <v>-8.3473955300267662</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="72">
         <v>28362.487000000001</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="73">
         <v>11.998658535611842</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="74">
         <v>-3.3235775743047058</v>
       </c>
       <c r="J6" s="11">
         <v>29031.134999999998</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>12.281527912776115</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <v>-16.348931817910703</v>
       </c>
       <c r="M6" s="11">
         <v>38865.379000000001</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="39">
         <v>-7.4164743470024819</v>
       </c>
       <c r="O6" s="11">
         <v>13452.681</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="39">
         <v>-11.993733632542982</v>
       </c>
       <c r="Q6" s="11">
         <v>28491.243999999999</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="39">
         <v>-11.06439811393586</v>
       </c>
     </row>
@@ -2410,52 +2442,52 @@
       <c r="B7" s="11">
         <v>229199.459</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>-3.0379090138334308</v>
       </c>
       <c r="D7" s="11">
         <v>45321.317000000003</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>19.773745190210068</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="39">
         <v>-3.0189959766250043</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="72">
         <v>27086.971000000001</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="73">
         <v>11.818078069721796</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="74">
         <v>-4.4971937757080331</v>
       </c>
       <c r="J7" s="11">
         <v>27179.195</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="29">
         <v>11.858315511992549</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <v>-6.3791512112771347</v>
       </c>
       <c r="M7" s="11">
         <v>40620.288</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="39">
         <v>4.5153528542716641</v>
       </c>
       <c r="O7" s="11">
         <v>14649.503000000001</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="39">
         <v>8.8965314794872494</v>
       </c>
       <c r="Q7" s="11">
         <v>28892.423999999999</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="39">
         <v>1.4080817250380504</v>
       </c>
     </row>
@@ -2466,52 +2498,52 @@
       <c r="B8" s="11">
         <v>257199.59</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>12.216490877493738</v>
       </c>
       <c r="D8" s="11">
         <v>51548.819000000003</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <v>20.04234104727772</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="39">
         <v>13.740778980451958</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="72">
         <v>28395.694</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="73">
         <v>11.0403340845139</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="74">
         <v>4.831559054720441</v>
       </c>
       <c r="J8" s="11">
         <v>30999.845000000001</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="29">
         <v>12.05283608733591</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <v>14.057259606106804</v>
       </c>
       <c r="M8" s="11">
         <v>41938.923999999999</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="39">
         <v>3.2462497557870589</v>
       </c>
       <c r="O8" s="11">
         <v>16892.550999999999</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="39">
         <v>15.311427288693686</v>
       </c>
       <c r="Q8" s="11">
         <v>31315.298999999999</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="39">
         <v>8.3858488301293104</v>
       </c>
     </row>
@@ -2522,52 +2554,52 @@
       <c r="B9" s="11">
         <v>284791.67300000001</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>10.727887629991944</v>
       </c>
       <c r="D9" s="11">
         <v>55199.063999999998</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>19.382260519955583</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <v>7.0811418589434609</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="72">
         <v>33104.9</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="73">
         <v>11.62425138743435</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="74">
         <v>16.584225763244245</v>
       </c>
       <c r="J9" s="11">
         <v>34548.646000000001</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>12.131199496131336</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <v>11.447802400302324</v>
       </c>
       <c r="M9" s="11">
         <v>44151.3</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="39">
         <v>5.2752330984934188</v>
       </c>
       <c r="O9" s="11">
         <v>19524.871999999999</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="39">
         <v>15.582732294252063</v>
       </c>
       <c r="Q9" s="11">
         <v>34580.411999999997</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="39">
         <v>10.426574563442616</v>
       </c>
     </row>
@@ -2578,332 +2610,332 @@
       <c r="B10" s="11">
         <v>285651.45</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>0.30189681845086813</v>
       </c>
       <c r="D10" s="11">
         <v>58456.578000000001</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>20.464302911817882</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <v>5.9013935453688129</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="72">
         <v>34849.796999999999</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="73">
         <v>12.200112059644717</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="74">
         <v>5.2708118737709526</v>
       </c>
       <c r="J10" s="11">
         <v>34965.356</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>12.240566606610958</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="39">
         <v>1.2061543598553761</v>
       </c>
       <c r="M10" s="11">
         <v>44051.896000000001</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="39">
         <v>-0.22514399349509526</v>
       </c>
       <c r="O10" s="11">
         <v>17740.668000000001</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="39">
         <v>-9.1381085622481919</v>
       </c>
       <c r="Q10" s="11">
         <v>36530.491999999998</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="39">
         <v>5.6392619035308202</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="11">
         <v>286147.64299999998</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>0.17370575223756085</v>
       </c>
       <c r="D11" s="11">
         <v>64808.491000000002</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>22.648619544980843</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <v>10.866036325287464</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="72">
         <v>32513.547999999999</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="73">
         <v>11.362507710748467</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="74">
         <v>-6.7037664523555183</v>
       </c>
       <c r="J11" s="11">
         <v>35901.137999999999</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>12.546368589169193</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="39">
         <v>2.6763119471742258</v>
       </c>
       <c r="M11" s="11">
         <v>45900.764999999999</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="39">
         <v>4.1970248000222279</v>
       </c>
       <c r="O11" s="11">
         <v>20610.395</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="39">
         <v>16.175980521139337</v>
       </c>
       <c r="Q11" s="11">
         <v>36796.875</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="39">
         <v>0.72920726060848018</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="11">
         <v>381957.53899999999</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>33.482678730294488</v>
       </c>
       <c r="D12" s="11">
         <v>84193.803</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>22.042712711058702</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <v>29.911685491951971</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="72">
         <v>39258.764000000003</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="75">
         <v>10.278305830219521</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="74">
         <v>20.745862617023526</v>
       </c>
       <c r="J12" s="11">
         <v>47232.839</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>12.365992074317978</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="39">
         <v>31.563626200372813</v>
       </c>
       <c r="M12" s="11">
         <v>56116.546000000002</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="39">
         <v>22.256232548629637</v>
       </c>
       <c r="O12" s="11">
         <v>30639.558000000001</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="39">
         <v>48.660702524138912</v>
       </c>
       <c r="Q12" s="11">
         <v>47331.006000000001</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="39">
         <v>28.627787006369427</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="11">
         <v>428082.522</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>12.075945174628428</v>
       </c>
       <c r="D13" s="11">
         <v>85507.962</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>19.974644514919017</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <v>1.5608737854495063</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="72">
         <v>45690.982000000004</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="75">
         <v>10.673405161820645</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="74">
         <v>16.384158197135296</v>
       </c>
       <c r="J13" s="11">
         <v>53937.46</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="30">
         <v>12.599780936629784</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <v>14.194829576092177</v>
       </c>
       <c r="M13" s="11">
         <v>54626.029000000002</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="39">
         <v>-2.6561096614891442</v>
       </c>
       <c r="O13" s="11">
         <v>34261.449999999997</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="39">
         <v>11.820966869039037</v>
       </c>
       <c r="Q13" s="11">
         <v>51071.726000000002</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="39">
         <v>7.9033181758274909</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="11">
         <v>351631.64</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>-17.858912258977956</v>
       </c>
       <c r="D14" s="11">
         <v>71717.903999999995</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <v>20.395748232440063</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>-16.127220994929104</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="72">
         <v>40881.728999999999</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="75">
         <v>11.626294209474437</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="74">
         <v>-10.52560656280051</v>
       </c>
       <c r="J14" s="11">
         <v>41031.415999999997</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <v>11.668863473150481</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <v>-23.927793411109828</v>
       </c>
       <c r="M14" s="11">
         <v>44344.434000000001</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <v>-18.821787320473177</v>
       </c>
       <c r="O14" s="11">
         <v>28414.772000000001</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="39">
         <v>-17.064887796634409</v>
       </c>
       <c r="Q14" s="11">
         <v>46606.144</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="39">
         <v>-8.743746001456854</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="11">
         <v>394365.29700000002</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>12.152961263667853</v>
       </c>
       <c r="D15" s="11">
         <v>80626.376000000004</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <v>20.444592009828895</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="44">
         <v>12.421545392626086</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="72">
         <v>46455.271999999997</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="75">
         <v>11.779756574270783</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="74">
         <v>13.633334832780678</v>
       </c>
       <c r="J15" s="11">
         <v>49268.631999999998</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="30">
         <v>12.493145916944107</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="39">
         <v>20.075388087995794</v>
       </c>
       <c r="M15" s="11">
         <v>46452.714</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="39">
         <v>4.7543283560683172</v>
       </c>
       <c r="O15" s="11">
         <v>43706.635000000002</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="39">
         <v>53.816595818541145</v>
       </c>
       <c r="Q15" s="11">
         <v>46002.248</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="39">
         <v>-1.2957433251718915</v>
       </c>
     </row>
@@ -2914,52 +2946,52 @@
       <c r="B16" s="14">
         <v>32124.38</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="40">
         <v>11.614531801096529</v>
       </c>
       <c r="D16" s="14">
         <v>6430.5379999999996</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>20.017625242884066</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="40">
         <v>1.3182081948071123</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="76">
         <v>3271.933</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="77">
         <v>10.185202017906649</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="78">
         <v>-11.39245065552514</v>
       </c>
       <c r="J16" s="14">
         <v>4044.1260000000002</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <v>12.588962028216578</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="40">
         <v>19.503067120275617</v>
       </c>
       <c r="M16" s="14">
         <v>3675.473</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="40">
         <v>9.5789816697210686</v>
       </c>
       <c r="O16" s="14">
         <v>3767.5439999999999</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="40">
         <v>70.612667803014517</v>
       </c>
       <c r="Q16" s="14">
         <v>3940.78</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="40">
         <v>5.9616360357434122</v>
       </c>
     </row>
@@ -2970,52 +3002,52 @@
       <c r="B17" s="14">
         <v>33428.775999999998</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <v>17.257271979659699</v>
       </c>
       <c r="D17" s="14">
         <v>7016.7030000000004</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>20.990008727809837</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="40">
         <v>7.4578967591733978</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="76">
         <v>3377.2449999999999</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="77">
         <v>10.102807832389676</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="78">
         <v>19.195634304534927</v>
       </c>
       <c r="J17" s="14">
         <v>4318.6009999999997</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <v>12.918812821624101</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="40">
         <v>36.229172581306585</v>
       </c>
       <c r="M17" s="14">
         <v>3957.4270000000001</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>21.364465362417999</v>
       </c>
       <c r="O17" s="14">
         <v>4132.134</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="40">
         <v>78.955328014218949</v>
       </c>
       <c r="Q17" s="14">
         <v>3442.9110000000001</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="40">
         <v>2.507097229438132</v>
       </c>
     </row>
@@ -3026,52 +3058,52 @@
       <c r="B18" s="14">
         <v>34251.175000000003</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>5.977075268586975</v>
       </c>
       <c r="D18" s="14">
         <v>7133.4290000000001</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>20.82681543041954</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="40">
         <v>-5.2320631943097489</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="76">
         <v>3226.3980000000001</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="77">
         <v>9.4198169843808266</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="78">
         <v>-10.365931920960616</v>
       </c>
       <c r="J18" s="14">
         <v>4267.6170000000002</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <v>12.459768168537284</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="40">
         <v>13.29224749197618</v>
       </c>
       <c r="M18" s="14">
         <v>4092.1280000000002</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="40">
         <v>5.6693226916739459</v>
       </c>
       <c r="O18" s="14">
         <v>5080.4949999999999</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="40">
         <v>61.456802278225886</v>
       </c>
       <c r="Q18" s="14">
         <v>4147.7449999999999</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="40">
         <v>12.444353837616358</v>
       </c>
     </row>
@@ -3082,52 +3114,52 @@
       <c r="B19" s="14">
         <v>33142.457000000002</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="40">
         <v>19.740872359225754</v>
       </c>
       <c r="D19" s="14">
         <v>7306.607</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="31">
         <v>22.046063150960716</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="40">
         <v>14.907154837345024</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="76">
         <v>3054.9340000000002</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="77">
         <v>9.2175845623032711</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="78">
         <v>15.519020589299645</v>
       </c>
       <c r="J19" s="14">
         <v>4019.451</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>12.127800301588985</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="40">
         <v>26.413333710738108</v>
       </c>
       <c r="M19" s="14">
         <v>3803.223</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="40">
         <v>10.753334781613519</v>
       </c>
       <c r="O19" s="14">
         <v>4079.9780000000001</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="40">
         <v>61.491636627608969</v>
       </c>
       <c r="Q19" s="14">
         <v>3888.5010000000002</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="40">
         <v>4.8677388514848285</v>
       </c>
     </row>
@@ -3138,108 +3170,108 @@
       <c r="B20" s="14">
         <v>37507.652999999998</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="40">
         <v>30.384463567845966</v>
       </c>
       <c r="D20" s="14">
         <v>7445.4930000000004</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>19.850596890186651</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="40">
         <v>31.112100378905609</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="76">
         <v>3639.96</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="77">
         <v>9.7045794894177995</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="78">
         <v>-5.8485749094041237</v>
       </c>
       <c r="J20" s="14">
         <v>4363.1549999999997</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <v>11.632705997360059</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="40">
         <v>38.08802822807673</v>
       </c>
       <c r="M20" s="14">
         <v>4736.7659999999996</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="40">
         <v>27.491784084944893</v>
       </c>
       <c r="O20" s="14">
         <v>4694.7060000000001</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="40">
         <v>81.024233317254129</v>
       </c>
       <c r="Q20" s="14">
         <v>4557.1819999999998</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="40">
         <v>28.892485277089392</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="11">
         <v>311543.91600000003</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>21.680094063303066</v>
       </c>
       <c r="D21" s="11">
         <v>59633.017999999996</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="30">
         <v>19.141127442206255</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <v>15.290487939249415</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="72">
         <v>31808.024000000001</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="75">
         <v>10.209804257580174</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="74">
         <v>-4.0676833831799177</v>
       </c>
       <c r="J21" s="11">
         <v>40135.394999999997</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="30">
         <v>12.882740743362808</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="39">
         <v>24.258927483407952</v>
       </c>
       <c r="M21" s="11">
         <v>35609.523000000001</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="39">
         <v>19.24227401176767</v>
       </c>
       <c r="O21" s="11">
         <v>39920.237000000001</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="39">
         <v>55.214966397636765</v>
       </c>
       <c r="Q21" s="11">
         <v>33089.69</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="39">
         <v>10.424449330070381</v>
       </c>
     </row>
@@ -3250,52 +3282,52 @@
       <c r="B22" s="14">
         <v>28642.850999999999</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="40">
         <v>-17.174603194798898</v>
       </c>
       <c r="D22" s="14">
         <v>6154.1660000000002</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>21.485870942106985</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="40">
         <v>-17.313055827633139</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="76">
         <v>2818.4369999999999</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="77">
         <v>9.8399317861200331</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="78">
         <v>-53.325876788490199</v>
       </c>
       <c r="J22" s="14">
         <v>3466.75</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <v>12.103369179276182</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="40">
         <v>-12.500530032124995</v>
       </c>
       <c r="M22" s="14">
         <v>2970.8829999999998</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="40">
         <v>-16.821015349940854</v>
       </c>
       <c r="O22" s="14">
         <v>3752.4270000000001</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="40">
         <v>21.085326399470279</v>
       </c>
       <c r="Q22" s="14">
         <v>2733.24</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="40">
         <v>-18.506130585663765</v>
       </c>
     </row>
@@ -3306,52 +3338,52 @@
       <c r="B23" s="14">
         <v>34665.08</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <v>47.459022948510054</v>
       </c>
       <c r="D23" s="14">
         <v>5907.7039999999997</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="31">
         <v>17.042233856088028</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="40">
         <v>53.038344139552684</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="76">
         <v>3695.0680000000002</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="77">
         <v>10.659337869694806</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="78">
         <v>-4.1783686194211178</v>
       </c>
       <c r="J23" s="14">
         <v>4429.57</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <v>12.778190617185942</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="40">
         <v>50.601051725773402</v>
       </c>
       <c r="M23" s="14">
         <v>4598.7629999999999</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="40">
         <v>46.223695309948845</v>
       </c>
       <c r="O23" s="14">
         <v>4183.0829999999996</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="40">
         <v>120.34596210735687</v>
       </c>
       <c r="Q23" s="14">
         <v>3980.009</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="40">
         <v>29.610534251460152</v>
       </c>
     </row>
@@ -3362,276 +3394,276 @@
       <c r="B24" s="14">
         <v>42616.815000000002</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="40">
         <v>28.761945662869625</v>
       </c>
       <c r="D24" s="14">
         <v>7821.85</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>18.353905612139247</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="40">
         <v>20.073377876877142</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="76">
         <v>4376.4120000000003</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="77">
         <v>10.269214158777469</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="78">
         <v>-17.074239233456108</v>
       </c>
       <c r="J24" s="14">
         <v>5295.6329999999998</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <v>12.426158547981588</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="40">
         <v>25.211125174169251</v>
       </c>
       <c r="M24" s="14">
         <v>5259.3720000000003</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="40">
         <v>33.46366626851173</v>
       </c>
       <c r="O24" s="14">
         <v>5100.7349999999997</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="40">
         <v>77.538398458492637</v>
       </c>
       <c r="Q24" s="14">
         <v>4738.3320000000003</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="40">
         <v>19.743839929523379</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" s="15" customFormat="1" ht="16.2">
       <c r="A25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="14">
+        <v>38</v>
+      </c>
+      <c r="B25" s="85">
         <v>41246.457999999999</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="86">
         <v>32.286600423180282</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="85">
         <v>7604.7569999999996</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="87">
         <v>18.437357699902375</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="88">
         <v>17.155159983140209</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="85">
         <v>4076.53</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="87">
         <v>9.8833456196408438</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="86">
         <v>8.2419972141133897</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="85">
         <v>5104.5870000000004</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="87">
         <v>12.375819033964081</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="86">
         <v>25.868842684751819</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="85">
         <v>4591.8729999999996</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="86">
         <v>18.185407456233253</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="85">
         <v>4172.8599999999997</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="86">
         <v>58.447113036993493</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="85">
         <v>4129.7790000000005</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="86">
         <v>5.0098480606719873</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="14">
         <v>39119.696000000004</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="40">
         <v>25.000266809902577</v>
       </c>
       <c r="D26" s="14">
         <v>7490.3689999999997</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="31">
         <v>19.147308813442724</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="40">
         <v>14.255135164488021</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="76">
         <v>4804.0879999999997</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="77">
         <v>12.280483979221106</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="78">
         <v>52.042968758653927</v>
       </c>
       <c r="J26" s="14">
         <v>4901.8329999999996</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="31">
         <v>12.530345327836903</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="40">
         <v>17.233337686086163</v>
       </c>
       <c r="M26" s="14">
         <v>4128.6419999999998</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="40">
         <v>17.438898885698634</v>
       </c>
       <c r="O26" s="14">
         <v>5139.491</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="40">
         <v>57.972532187785852</v>
       </c>
       <c r="Q26" s="14">
         <v>3881.6239999999998</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="40">
         <v>-0.13419641662635973</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="14">
         <v>41251.955000000002</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="40">
         <v>17.247280844663386</v>
       </c>
       <c r="D27" s="14">
         <v>8222.7990000000009</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>19.933113473046308</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="40">
         <v>15.589891154760416</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="76">
         <v>3897.241</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="77">
         <v>9.4474092197569792</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="78">
         <v>-5.2436851872968742</v>
       </c>
       <c r="J27" s="14">
         <v>5032.8909999999996</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <v>12.200369655207856</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="40">
         <v>13.657434538290831</v>
       </c>
       <c r="M27" s="14">
         <v>4841.4949999999999</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="40">
         <v>17.808136179192164</v>
       </c>
       <c r="O27" s="14">
         <v>5619.3019999999997</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="40">
         <v>36.032221853991217</v>
       </c>
       <c r="Q27" s="14">
         <v>5333.4870000000001</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="40">
         <v>35.703642978073127</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="14">
         <v>42342.298999999999</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="40">
         <v>20.757283879797868</v>
       </c>
       <c r="D28" s="14">
         <v>8514.3819999999996</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="31">
         <v>20.108454668462851</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="40">
         <v>16.386764545266526</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="76">
         <v>4171.3710000000001</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="77">
         <v>9.8515458501674651</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="78">
         <v>13.542749493512634</v>
       </c>
       <c r="J28" s="14">
         <v>5886.63</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="31">
         <v>13.902480826560693</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="40">
         <v>32.041457387877706</v>
       </c>
       <c r="M28" s="14">
         <v>4636.9139999999998</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="40">
         <v>15.351772213712961</v>
       </c>
       <c r="O28" s="14">
         <v>5740.7250000000004</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="40">
         <v>41.276456151135889</v>
       </c>
       <c r="Q28" s="14">
         <v>3966.002</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="40">
         <v>1.8604025204658148</v>
       </c>
     </row>
@@ -3642,226 +3674,226 @@
       <c r="B29" s="14">
         <v>41658.762000000002</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="40">
         <v>29.679582921133417</v>
       </c>
       <c r="D29" s="14">
         <v>7916.991</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>19.004383759651809</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="40">
         <v>23.115530924473195</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="76">
         <v>3968.877</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="77">
         <v>9.5271122075111112</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="78">
         <v>21.300680667972113</v>
       </c>
       <c r="J29" s="14">
         <v>6017.5010000000002</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <v>14.444742741034888</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="40">
         <v>48.796081032094449</v>
       </c>
       <c r="M29" s="14">
         <v>4581.5810000000001</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="40">
         <v>24.652826996688589</v>
       </c>
       <c r="O29" s="14">
         <v>6211.6139999999996</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="40">
         <v>64.871704218981918</v>
       </c>
       <c r="Q29" s="14">
         <v>4327.2169999999996</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="40">
         <v>9.8061043752759609</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="56" t="s">
-        <v>35</v>
+      <c r="A30" s="50" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="16">
         <v>-683.53700000000003</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>-1.6143124396717334</v>
       </c>
       <c r="D30" s="16">
         <v>-597.39099999999996</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="48">
+      <c r="E30" s="32"/>
+      <c r="F30" s="45">
         <v>-7.0162579033921659</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="79">
         <v>-202.494</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="43">
+      <c r="H30" s="80"/>
+      <c r="I30" s="81">
         <v>-4.8543752162058951</v>
       </c>
       <c r="J30" s="16">
         <v>130.87100000000001</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="43">
+      <c r="K30" s="35"/>
+      <c r="L30" s="41">
         <v>2.2231905181742353</v>
       </c>
       <c r="M30" s="16">
         <v>-55.332999999999998</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="41">
         <v>-1.1933152092102635</v>
       </c>
       <c r="O30" s="16">
         <v>470.88900000000001</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="41">
         <v>8.2026050716590682</v>
       </c>
       <c r="Q30" s="16">
         <v>361.21499999999997</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="41">
         <v>9.1077866324827887</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="57" t="s">
-        <v>36</v>
+      <c r="A31" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="14">
         <v>9534.3819999999996</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="40">
         <v>29.679582921133417</v>
       </c>
       <c r="D31" s="14">
         <v>1486.453</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="42">
+      <c r="E31" s="31"/>
+      <c r="F31" s="40">
         <v>23.115530924473195</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="76">
         <v>696.94399999999996</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="42">
+      <c r="H31" s="77"/>
+      <c r="I31" s="78">
         <v>21.300680667972113</v>
       </c>
       <c r="J31" s="14">
         <v>1973.375</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="42">
+      <c r="K31" s="31"/>
+      <c r="L31" s="40">
         <v>48.796081032094449</v>
       </c>
       <c r="M31" s="14">
         <v>906.10799999999995</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="40">
         <v>24.652826996688589</v>
       </c>
       <c r="O31" s="14">
         <v>2444.0700000000002</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="40">
         <v>64.871704218981918</v>
       </c>
       <c r="Q31" s="14">
         <v>386.43700000000001</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="40">
         <v>9.8061043752759609</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="58" t="s">
-        <v>37</v>
+      <c r="A32" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="17">
         <v>55508.68</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="42">
         <v>21.680094063303066</v>
       </c>
       <c r="D32" s="17">
         <v>7908.8739999999998</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="44">
+      <c r="E32" s="33"/>
+      <c r="F32" s="42">
         <v>15.290487939249415</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="82">
         <v>-1348.711</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="44">
+      <c r="H32" s="83"/>
+      <c r="I32" s="84">
         <v>-4.0676833831799177</v>
       </c>
       <c r="J32" s="17">
         <v>7835.5870000000004</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="44">
+      <c r="K32" s="33"/>
+      <c r="L32" s="42">
         <v>24.258927483407952</v>
       </c>
       <c r="M32" s="17">
         <v>5746.3530000000001</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="42">
         <v>19.24227401176767</v>
       </c>
       <c r="O32" s="17">
         <v>14200.915000000001</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="42">
         <v>55.214966397636765</v>
       </c>
       <c r="Q32" s="17">
         <v>3123.7809999999999</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="42">
         <v>10.424449330070381</v>
       </c>
     </row>
     <row r="33" spans="1:31" s="20" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="61"/>
+      <c r="A33" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="51"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="40"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="51"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
